--- a/tables and charts.xlsx
+++ b/tables and charts.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -172,9 +173,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00;[Red]&quot;€&quot;#,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -262,7 +264,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +319,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -509,7 +517,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,9 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,9 +601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,12 +622,6 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,9 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,9 +649,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,9 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,6 +700,29 @@
     <xf numFmtId="9" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
@@ -738,40 +748,6 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -792,6 +768,23 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -823,116 +816,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -970,9 +853,136 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1021,17 +1031,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0319148895041188"/>
-          <c:y val="0.344596740570922"/>
-          <c:w val="0.931260237991129"/>
-          <c:h val="0.598468946315184"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1074,7 +1074,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Foglio1!$B$61:$B$66</c:f>
+              <c:f>[2]Foglio1!$B$61:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1101,9 +1101,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Foglio1!$C$61:$C$66</c:f>
+              <c:f>[2]Foglio1!$C$61:$C$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-149000.0</c:v>
@@ -1136,11 +1136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2094283304"/>
-        <c:axId val="-2094280232"/>
+        <c:axId val="2124925720"/>
+        <c:axId val="2131350760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094283304"/>
+        <c:axId val="2124925720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094280232"/>
+        <c:crossAx val="2131350760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,17 +1174,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094280232"/>
+        <c:axId val="2131350760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094283304"/>
+        <c:crossAx val="2124925720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,7 +1234,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Foglio1!$C$27:$H$27</c:f>
+              <c:f>[2]Foglio1!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1261,9 +1261,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Foglio1!$C$48:$H$48</c:f>
+              <c:f>[2]Foglio1!$C$48:$H$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-149000.0</c:v>
@@ -1298,11 +1298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095710152"/>
-        <c:axId val="-2101057544"/>
+        <c:axId val="2132973016"/>
+        <c:axId val="2132976088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095710152"/>
+        <c:axId val="2132973016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101057544"/>
+        <c:crossAx val="2132976088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,14 +1320,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101057544"/>
+        <c:axId val="2132976088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1336,7 +1336,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2095710152"/>
+        <c:crossAx val="2132973016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,20 +1371,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>948267</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>465668</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1403,20 +1403,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:rowOff>169331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>618066</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:colOff>855133</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvPr id="6" name="Grafico 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1542,13 +1542,119 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Foglio1"/>
+      <sheetName val="Foglio2"/>
+      <sheetName val="Foglio1 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>1</v>
+          </cell>
+          <cell r="E27">
+            <v>2</v>
+          </cell>
+          <cell r="F27">
+            <v>3</v>
+          </cell>
+          <cell r="G27">
+            <v>4</v>
+          </cell>
+          <cell r="H27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>-149000</v>
+          </cell>
+          <cell r="D48">
+            <v>45224.450811843366</v>
+          </cell>
+          <cell r="E48">
+            <v>43194.317871865685</v>
+          </cell>
+          <cell r="F48">
+            <v>41255.317929193588</v>
+          </cell>
+          <cell r="G48">
+            <v>39403.360008780888</v>
+          </cell>
+          <cell r="H48">
+            <v>37634.536780115464</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>0</v>
+          </cell>
+          <cell r="C61">
+            <v>-149000</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+          <cell r="C62">
+            <v>-101650</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>2</v>
+          </cell>
+          <cell r="C63">
+            <v>-54300</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>3</v>
+          </cell>
+          <cell r="C64">
+            <v>-6950</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>4</v>
+          </cell>
+          <cell r="C65">
+            <v>40400</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>5</v>
+          </cell>
+          <cell r="C66">
+            <v>87750</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella14" displayName="Tabella14" ref="B5:E11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella14" displayName="Tabella14" ref="B5:E11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" name="Colonna1" headerRowDxfId="9" dataDxfId="5"/>
-    <tableColumn id="2" name="Current system costs %" headerRowDxfId="8" dataDxfId="4" dataCellStyle="Valuta"/>
-    <tableColumn id="3" name="New system costs %" headerRowDxfId="7" dataDxfId="3" dataCellStyle="Valuta"/>
-    <tableColumn id="4" name="Colonna2" headerRowDxfId="6" dataDxfId="2">
+    <tableColumn id="1" name="Colonna1" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="2" name="Current system costs %" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Valuta"/>
+    <tableColumn id="3" name="New system costs %" headerRowDxfId="3" dataDxfId="2" dataCellStyle="Valuta"/>
+    <tableColumn id="4" name="Colonna2" headerRowDxfId="1" dataDxfId="0">
       <calculatedColumnFormula>(Tabella14[[#This Row],[New system costs %]]-Tabella14[[#This Row],[Current system costs %]])/Tabella14[[#This Row],[Current system costs %]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1880,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1994,12 +2100,12 @@
         <v>12</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -2035,14 +2141,14 @@
       <c r="I5" s="19">
         <v>3.3890375099353953</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="O5" s="17"/>
@@ -2075,14 +2181,14 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>500</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -2113,16 +2219,16 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>500</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="29">
         <v>45</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="63">
         <f>M7*L7</f>
         <v>22500</v>
       </c>
@@ -2156,16 +2262,16 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="28">
         <v>500</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <v>50</v>
       </c>
-      <c r="N8" s="70">
+      <c r="N8" s="63">
         <f t="shared" ref="N8:N9" si="0">M8*L8</f>
         <v>25000</v>
       </c>
@@ -2199,16 +2305,16 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>1</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>1500</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="64">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -2242,12 +2348,12 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="33">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="32">
         <f>SUM(N7:N9)</f>
         <v>49000</v>
       </c>
@@ -2283,10 +2389,10 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="33"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -2308,12 +2414,12 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -2335,14 +2441,14 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73" t="s">
+      <c r="K13" s="65"/>
+      <c r="L13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="74" t="s">
+      <c r="N13" s="67" t="s">
         <v>35</v>
       </c>
       <c r="O13" s="17"/>
@@ -2366,14 +2472,14 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <v>4</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="69"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -2395,14 +2501,14 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="25">
+      <c r="L15" s="28"/>
+      <c r="M15" s="24">
         <v>50</v>
       </c>
-      <c r="N15" s="75"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -2424,15 +2530,15 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <f>L6*L14</f>
         <v>2000</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="76"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -2454,10 +2560,10 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="37">
+      <c r="N17" s="35">
         <f>L16*M15</f>
         <v>100000</v>
       </c>
@@ -2532,12 +2638,12 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41">
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39">
         <f>N17+N10</f>
         <v>149000</v>
       </c>
@@ -2616,18 +2722,18 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="78">
+      <c r="O23" s="40"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71">
         <v>0.4</v>
       </c>
-      <c r="R23" s="78">
+      <c r="R23" s="71">
         <v>0.2</v>
       </c>
-      <c r="S23" s="78">
+      <c r="S23" s="71">
         <v>0.4</v>
       </c>
-      <c r="T23" s="77"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -2647,12 +2753,12 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="42"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="40"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -2671,14 +2777,14 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="44" t="s">
+      <c r="O25" s="40"/>
+      <c r="P25" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
@@ -2698,14 +2804,14 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="45" t="s">
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="42"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="40"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
@@ -2725,18 +2831,18 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47" t="s">
+      <c r="O27" s="40"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="S27" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="49" t="s">
+      <c r="T27" s="45" t="s">
         <v>21</v>
       </c>
       <c r="U27" s="17"/>
@@ -2758,22 +2864,22 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="50" t="s">
+      <c r="O28" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="52">
+      <c r="Q28" s="47">
         <v>4</v>
       </c>
-      <c r="R28" s="53">
+      <c r="R28" s="48">
         <v>3</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="49">
         <v>3</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="50">
         <f>Q28*0.4+R28*0.2+S28*0.4</f>
         <v>3.4000000000000004</v>
       </c>
@@ -2789,27 +2895,27 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="56" t="s">
+      <c r="O29" s="73"/>
+      <c r="P29" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="48">
         <v>4</v>
       </c>
-      <c r="R29" s="57">
+      <c r="R29" s="51">
         <v>3</v>
       </c>
-      <c r="S29" s="58">
+      <c r="S29" s="52">
         <v>4</v>
       </c>
-      <c r="T29" s="55">
+      <c r="T29" s="50">
         <f t="shared" ref="T29:T30" si="1">Q29*0.4+R29*0.2+S29*0.4</f>
         <v>3.8000000000000003</v>
       </c>
@@ -2832,20 +2938,20 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="59" t="s">
+      <c r="O30" s="73"/>
+      <c r="P30" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="Q30" s="54">
         <v>4</v>
       </c>
-      <c r="R30" s="61">
+      <c r="R30" s="55">
         <v>2</v>
       </c>
-      <c r="S30" s="62">
+      <c r="S30" s="56">
         <v>1</v>
       </c>
-      <c r="T30" s="63">
+      <c r="T30" s="57">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
@@ -3139,10 +3245,12 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="B47" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -3181,12 +3289,6 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
